--- a/Pooja Oil Catalogue.xlsx
+++ b/Pooja Oil Catalogue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maa00\Downloads\hem-catalogue-app\hem-catalogue-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee11846ce882123f/Desktop/hem-catalogue-app_final-1/hem-catalogue-app-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5AD52C-367D-4751-80B7-8CB77532D2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{7C5AD52C-367D-4751-80B7-8CB77532D2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{971A5B6C-9290-4B36-99A9-CDD74E460E25}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{988DBE6C-EE94-47FA-8870-2C94BA4EE1E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Category</t>
   </si>
@@ -129,6 +129,21 @@
   </si>
   <si>
     <t>Madhur Guggal Cup Dhoop (Mrp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cup Dhoop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEM  Camphor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pooja Oil </t>
+  </si>
+  <si>
+    <t>Ghee Diya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pooja Samagri </t>
   </si>
 </sst>
 </file>
@@ -547,7 +562,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -578,7 +593,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="2" t="s">
@@ -591,7 +606,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
@@ -604,7 +619,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
@@ -617,7 +632,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
@@ -630,7 +645,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
@@ -643,7 +658,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
@@ -656,7 +671,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
@@ -669,7 +684,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
@@ -682,7 +697,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
@@ -694,8 +709,8 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
+      <c r="A11" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
@@ -708,7 +723,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
@@ -721,7 +736,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="2" t="s">
@@ -734,7 +749,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">

--- a/Pooja Oil Catalogue.xlsx
+++ b/Pooja Oil Catalogue.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee11846ce882123f/Desktop/hem-catalogue-app_final-1/hem-catalogue-app-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{7C5AD52C-367D-4751-80B7-8CB77532D2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{971A5B6C-9290-4B36-99A9-CDD74E460E25}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{7C5AD52C-367D-4751-80B7-8CB77532D2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D6154F5-F1F0-41FB-BFE7-5B782CC26B0F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{988DBE6C-EE94-47FA-8870-2C94BA4EE1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$14</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -566,7 +569,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -600,24 +603,24 @@
         <v>35</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -627,23 +630,23 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -653,23 +656,23 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -679,10 +682,10 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -692,10 +695,10 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -705,23 +708,23 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4"/>
     </row>
